--- a/data/trans_orig/P5706-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5706-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC996CBB-55A8-4A3F-B52C-7D19D2864D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC28F348-57F3-4839-88A7-B8DF39A6215E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7578DEEA-F110-498B-B42D-B0A303449257}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9A1B5CBC-EBE3-4DA7-8417-7EA8329450D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="637">
   <si>
     <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>47,46%</t>
   </si>
   <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
   </si>
   <si>
     <t>45,04%</t>
   </si>
   <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>46,1%</t>
   </si>
   <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,28 +107,28 @@
     <t>29,06%</t>
   </si>
   <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
   </si>
   <si>
     <t>29,03%</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
   </si>
   <si>
     <t>Ni mucho ni poco</t>
@@ -137,1849 +137,1819 @@
     <t>16,75%</t>
   </si>
   <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
   </si>
   <si>
     <t>18,54%</t>
   </si>
   <si>
-    <t>16,49%</t>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2012 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2015 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2023 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
   </si>
   <si>
     <t>20,8%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2012 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>3,57%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>4,02%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2023 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>1,44%</t>
   </si>
 </sst>
 </file>
@@ -2391,7 +2361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB30C72C-C90F-496F-8139-80524CD33319}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3482C51B-185A-422C-B5D9-157B050EFF2E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3302,10 +3272,10 @@
         <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -3314,13 +3284,13 @@
         <v>29809</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3305,13 @@
         <v>2524</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3350,13 +3320,13 @@
         <v>947</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3365,13 +3335,13 @@
         <v>3471</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3409,13 @@
         <v>1837072</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>1773</v>
@@ -3454,13 +3424,13 @@
         <v>1804818</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>3560</v>
@@ -3469,13 +3439,13 @@
         <v>3641889</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3460,13 @@
         <v>925608</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>944</v>
@@ -3505,13 +3475,13 @@
         <v>961955</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>1866</v>
@@ -3520,13 +3490,13 @@
         <v>1887562</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3511,13 @@
         <v>384211</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>425</v>
@@ -3556,13 +3526,13 @@
         <v>445166</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>806</v>
@@ -3571,13 +3541,13 @@
         <v>829377</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3562,13 @@
         <v>104250</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>125</v>
@@ -3607,13 +3577,13 @@
         <v>134938</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>47</v>
       </c>
       <c r="M25" s="7">
         <v>226</v>
@@ -3622,13 +3592,13 @@
         <v>239188</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3613,13 @@
         <v>25404</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>30</v>
@@ -3658,13 +3628,13 @@
         <v>32321</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>53</v>
@@ -3673,13 +3643,13 @@
         <v>57725</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,7 +3691,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -3735,7 +3705,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3754,7 +3724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A0C926-2206-4A0E-BF90-C87B2E3671B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA345C55-27A2-4D04-9C41-4BB2F851C324}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3771,7 +3741,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3878,13 +3848,13 @@
         <v>524350</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
         <v>631</v>
@@ -3893,13 +3863,13 @@
         <v>676336</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>1123</v>
@@ -3908,13 +3878,13 @@
         <v>1200686</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,13 +3899,13 @@
         <v>280625</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>415</v>
@@ -3944,13 +3914,13 @@
         <v>445164</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>672</v>
@@ -3959,13 +3929,13 @@
         <v>725789</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3950,13 @@
         <v>130326</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>150</v>
@@ -3995,13 +3965,13 @@
         <v>160488</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>272</v>
@@ -4010,13 +3980,13 @@
         <v>290814</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4001,13 @@
         <v>24992</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -4046,13 +4016,13 @@
         <v>38919</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>59</v>
@@ -4061,13 +4031,13 @@
         <v>63911</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4052,13 @@
         <v>10322</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>57</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -4100,10 +4070,10 @@
         <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -4112,13 +4082,13 @@
         <v>25092</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4156,13 @@
         <v>1206443</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>957</v>
@@ -4201,13 +4171,13 @@
         <v>1025015</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>241</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>107</v>
       </c>
       <c r="M10" s="7">
         <v>2098</v>
@@ -4216,13 +4186,13 @@
         <v>2231458</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,10 +4210,10 @@
         <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H11" s="7">
         <v>491</v>
@@ -4252,13 +4222,13 @@
         <v>524713</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M11" s="7">
         <v>1004</v>
@@ -4267,13 +4237,13 @@
         <v>1073495</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4258,13 @@
         <v>165611</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H12" s="7">
         <v>143</v>
@@ -4303,13 +4273,13 @@
         <v>153885</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M12" s="7">
         <v>306</v>
@@ -4321,10 +4291,10 @@
         <v>125</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4309,13 @@
         <v>30707</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -4354,13 +4324,13 @@
         <v>36498</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -4369,13 +4339,13 @@
         <v>67204</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4360,13 @@
         <v>10159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -4405,13 +4375,13 @@
         <v>14862</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -4420,13 +4390,13 @@
         <v>25021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4464,13 @@
         <v>325946</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
         <v>277</v>
@@ -4509,10 +4479,10 @@
         <v>308668</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>279</v>
+        <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>280</v>
@@ -4551,7 +4521,7 @@
         <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
         <v>95</v>
@@ -4560,13 +4530,13 @@
         <v>106346</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>192</v>
@@ -4575,13 +4545,13 @@
         <v>210230</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4566,13 @@
         <v>35492</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -4611,13 +4581,13 @@
         <v>35792</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -4650,10 +4620,10 @@
         <v>301</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>193</v>
+        <v>302</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4662,13 +4632,13 @@
         <v>7825</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>221</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -4677,13 +4647,13 @@
         <v>19402</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>306</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4668,13 @@
         <v>2186</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4713,13 +4683,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4728,13 +4698,13 @@
         <v>2186</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4772,13 @@
         <v>2056739</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H22" s="7">
         <v>1865</v>
@@ -4817,13 +4787,13 @@
         <v>2010019</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M22" s="7">
         <v>3797</v>
@@ -4832,13 +4802,13 @@
         <v>4066759</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4823,13 @@
         <v>933291</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H23" s="7">
         <v>1001</v>
@@ -4868,13 +4838,13 @@
         <v>1076223</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M23" s="7">
         <v>1868</v>
@@ -4883,13 +4853,13 @@
         <v>2009514</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4874,13 @@
         <v>331428</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>330</v>
+        <v>83</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H24" s="7">
         <v>325</v>
@@ -4919,13 +4889,13 @@
         <v>350165</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M24" s="7">
         <v>640</v>
@@ -4934,13 +4904,13 @@
         <v>681593</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4925,13 @@
         <v>67275</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -4970,13 +4940,13 @@
         <v>83241</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>95</v>
+        <v>343</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>96</v>
+        <v>344</v>
       </c>
       <c r="M25" s="7">
         <v>135</v>
@@ -4985,13 +4955,13 @@
         <v>150517</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>342</v>
+        <v>227</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>222</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +4976,13 @@
         <v>22668</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>344</v>
+        <v>275</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>57</v>
+        <v>271</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -5021,13 +4991,13 @@
         <v>29632</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>232</v>
+        <v>347</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -5036,13 +5006,13 @@
         <v>52300</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>348</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>349</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,7 +5068,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -5117,7 +5087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AC4D8F-6994-4A49-A8CB-F3AE10FBD83F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2CEBFC-78B7-4FC5-84C1-BF228E039685}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5298,7 +5268,7 @@
         <v>361</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>209</v>
+        <v>362</v>
       </c>
       <c r="H5" s="7">
         <v>310</v>
@@ -5307,13 +5277,13 @@
         <v>343783</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M5" s="7">
         <v>559</v>
@@ -5322,13 +5292,13 @@
         <v>592503</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5313,13 @@
         <v>146618</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H6" s="7">
         <v>172</v>
@@ -5358,13 +5328,13 @@
         <v>191800</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M6" s="7">
         <v>323</v>
@@ -5373,13 +5343,13 @@
         <v>338418</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5364,13 @@
         <v>29986</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>378</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>377</v>
+        <v>55</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -5409,13 +5379,13 @@
         <v>44666</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M7" s="7">
         <v>68</v>
@@ -5424,13 +5394,13 @@
         <v>74652</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,13 +5415,13 @@
         <v>3976</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -5460,13 +5430,13 @@
         <v>11324</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>388</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>389</v>
+        <v>103</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -5475,13 +5445,13 @@
         <v>15300</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,10 +5675,10 @@
         <v>419</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>268</v>
+        <v>420</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -5717,13 +5687,13 @@
         <v>35929</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -5732,13 +5702,13 @@
         <v>77219</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>423</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,10 +5726,10 @@
         <v>103</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>427</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -5768,13 +5738,13 @@
         <v>7320</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -5783,13 +5753,13 @@
         <v>19515</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5827,13 @@
         <v>316008</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H16" s="7">
         <v>328</v>
@@ -5872,13 +5842,13 @@
         <v>342973</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="M16" s="7">
         <v>619</v>
@@ -5887,13 +5857,13 @@
         <v>658980</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,13 +5878,13 @@
         <v>172479</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H17" s="7">
         <v>148</v>
@@ -5923,13 +5893,13 @@
         <v>154884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -5938,13 +5908,13 @@
         <v>327363</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,13 +5929,13 @@
         <v>54427</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -5974,13 +5944,13 @@
         <v>41497</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>455</v>
+        <v>379</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M18" s="7">
         <v>88</v>
@@ -5989,13 +5959,13 @@
         <v>95923</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>297</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +5980,13 @@
         <v>1055</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>458</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>459</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -6025,13 +5995,13 @@
         <v>8853</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>347</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -6040,13 +6010,13 @@
         <v>9908</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>463</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,13 +6031,13 @@
         <v>2052</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>465</v>
+        <v>307</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6076,13 +6046,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6091,13 +6061,13 @@
         <v>2052</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>458</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,13 +6135,13 @@
         <v>1656872</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>397</v>
+        <v>462</v>
       </c>
       <c r="H22" s="7">
         <v>1624</v>
@@ -6180,13 +6150,13 @@
         <v>1710445</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="M22" s="7">
         <v>3203</v>
@@ -6195,13 +6165,13 @@
         <v>3367317</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6216,13 +6186,13 @@
         <v>1157894</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H23" s="7">
         <v>1132</v>
@@ -6231,13 +6201,13 @@
         <v>1202379</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="M23" s="7">
         <v>2232</v>
@@ -6246,13 +6216,13 @@
         <v>2360273</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,13 +6237,13 @@
         <v>466792</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H24" s="7">
         <v>468</v>
@@ -6282,13 +6252,13 @@
         <v>505461</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>486</v>
+        <v>216</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="M24" s="7">
         <v>914</v>
@@ -6297,13 +6267,13 @@
         <v>972253</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>484</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,13 +6288,13 @@
         <v>72332</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>492</v>
+        <v>235</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>420</v>
+        <v>487</v>
       </c>
       <c r="H25" s="7">
         <v>81</v>
@@ -6333,13 +6303,13 @@
         <v>89448</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>184</v>
+        <v>489</v>
       </c>
       <c r="M25" s="7">
         <v>148</v>
@@ -6348,13 +6318,13 @@
         <v>161779</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>494</v>
+        <v>419</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>495</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,13 +6339,13 @@
         <v>18223</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>389</v>
+        <v>230</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>496</v>
+        <v>98</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -6384,13 +6354,13 @@
         <v>18644</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -6399,13 +6369,13 @@
         <v>36867</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,7 +6431,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -6480,7 +6450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EF0A2B-DBC0-4609-9171-BD464F2D79C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216AA731-9230-4B08-A4D2-2AD6657EBDCA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6497,7 +6467,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6604,13 +6574,13 @@
         <v>262950</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="H4" s="7">
         <v>613</v>
@@ -6619,13 +6589,13 @@
         <v>364965</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="M4" s="7">
         <v>941</v>
@@ -6634,13 +6604,13 @@
         <v>627915</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6625,13 @@
         <v>142157</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="H5" s="7">
         <v>443</v>
@@ -6670,13 +6640,13 @@
         <v>257216</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="M5" s="7">
         <v>628</v>
@@ -6685,13 +6655,13 @@
         <v>399373</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6676,13 @@
         <v>81971</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>219</v>
+        <v>512</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="H6" s="7">
         <v>225</v>
@@ -6721,13 +6691,13 @@
         <v>125043</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="M6" s="7">
         <v>332</v>
@@ -6736,13 +6706,13 @@
         <v>207013</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,13 +6727,13 @@
         <v>35077</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H7" s="7">
         <v>108</v>
@@ -6772,13 +6742,13 @@
         <v>65969</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="M7" s="7">
         <v>153</v>
@@ -6787,13 +6757,13 @@
         <v>101047</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>330</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6778,13 @@
         <v>15039</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -6823,13 +6793,13 @@
         <v>16095</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>536</v>
+        <v>140</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>537</v>
+        <v>487</v>
       </c>
       <c r="M8" s="7">
         <v>48</v>
@@ -6838,13 +6808,13 @@
         <v>31134</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6912,13 +6882,13 @@
         <v>1250011</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H10" s="7">
         <v>1563</v>
@@ -6927,13 +6897,13 @@
         <v>1203121</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="M10" s="7">
         <v>2612</v>
@@ -6942,13 +6912,13 @@
         <v>2453133</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6963,13 +6933,13 @@
         <v>670174</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>551</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="H11" s="7">
         <v>993</v>
@@ -6978,13 +6948,13 @@
         <v>796091</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="M11" s="7">
         <v>1684</v>
@@ -6993,13 +6963,13 @@
         <v>1466265</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,13 +6984,13 @@
         <v>154885</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="H12" s="7">
         <v>224</v>
@@ -7029,13 +6999,13 @@
         <v>151061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="M12" s="7">
         <v>381</v>
@@ -7044,13 +7014,13 @@
         <v>305946</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,13 +7035,13 @@
         <v>61254</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>562</v>
       </c>
       <c r="H13" s="7">
         <v>103</v>
@@ -7080,13 +7050,13 @@
         <v>76978</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>570</v>
+        <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -7095,13 +7065,13 @@
         <v>138232</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,13 +7086,13 @@
         <v>23328</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>575</v>
+        <v>261</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>568</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>534</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -7131,13 +7101,13 @@
         <v>19085</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>576</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>54</v>
@@ -7146,13 +7116,13 @@
         <v>42414</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>578</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7217,16 +7187,16 @@
         <v>411</v>
       </c>
       <c r="D16" s="7">
-        <v>424489</v>
+        <v>424488</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H16" s="7">
         <v>688</v>
@@ -7235,13 +7205,13 @@
         <v>500857</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="M16" s="7">
         <v>1099</v>
@@ -7250,13 +7220,13 @@
         <v>925345</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7271,13 +7241,13 @@
         <v>196401</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H17" s="7">
         <v>251</v>
@@ -7286,13 +7256,13 @@
         <v>168246</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="M17" s="7">
         <v>465</v>
@@ -7301,13 +7271,13 @@
         <v>364647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7292,13 @@
         <v>35462</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -7337,13 +7307,13 @@
         <v>31455</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>600</v>
+        <v>182</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="M18" s="7">
         <v>79</v>
@@ -7352,13 +7322,13 @@
         <v>66916</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7343,13 @@
         <v>10644</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>533</v>
+        <v>55</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -7388,13 +7358,13 @@
         <v>5559</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -7403,13 +7373,13 @@
         <v>16203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>607</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,13 +7394,13 @@
         <v>4168</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>610</v>
+        <v>235</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7439,13 +7409,13 @@
         <v>6170</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>274</v>
+        <v>601</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -7454,13 +7424,13 @@
         <v>10338</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>612</v>
+        <v>275</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>613</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7472,7 +7442,7 @@
         <v>679</v>
       </c>
       <c r="D21" s="7">
-        <v>671163</v>
+        <v>671162</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -7528,13 +7498,13 @@
         <v>1937449</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="H22" s="7">
         <v>2864</v>
@@ -7543,13 +7513,13 @@
         <v>2068943</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>499</v>
+        <v>607</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="M22" s="7">
         <v>4652</v>
@@ -7558,13 +7528,13 @@
         <v>4006393</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,13 +7549,13 @@
         <v>1008733</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>622</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="H23" s="7">
         <v>1687</v>
@@ -7594,13 +7564,13 @@
         <v>1221554</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="M23" s="7">
         <v>2777</v>
@@ -7609,13 +7579,13 @@
         <v>2230286</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>78</v>
+        <v>618</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,13 +7600,13 @@
         <v>272317</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="H24" s="7">
         <v>492</v>
@@ -7645,10 +7615,10 @@
         <v>307558</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>86</v>
@@ -7660,13 +7630,13 @@
         <v>579876</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>637</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7681,13 +7651,13 @@
         <v>106975</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>638</v>
+        <v>220</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H25" s="7">
         <v>222</v>
@@ -7696,13 +7666,13 @@
         <v>148506</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>629</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="M25" s="7">
         <v>351</v>
@@ -7711,13 +7681,13 @@
         <v>255482</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>229</v>
+        <v>631</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>642</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7732,13 +7702,13 @@
         <v>42535</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>346</v>
+        <v>633</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>459</v>
+        <v>634</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>643</v>
+        <v>235</v>
       </c>
       <c r="H26" s="7">
         <v>69</v>
@@ -7747,13 +7717,13 @@
         <v>41350</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>56</v>
+        <v>636</v>
       </c>
       <c r="M26" s="7">
         <v>115</v>
@@ -7762,13 +7732,13 @@
         <v>83886</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>645</v>
+        <v>148</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7824,7 +7794,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5706-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5706-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC28F348-57F3-4839-88A7-B8DF39A6215E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ABE1246-ABDA-4F8D-AF6E-F6F8BFFA6D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9A1B5CBC-EBE3-4DA7-8417-7EA8329450D2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{759B92E0-A90F-4609-A2C5-A410DA1508DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="632">
   <si>
     <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>47,46%</t>
   </si>
   <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
   </si>
   <si>
     <t>45,04%</t>
   </si>
   <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
   </si>
   <si>
     <t>46,1%</t>
   </si>
   <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,28 +107,28 @@
     <t>29,06%</t>
   </si>
   <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
   </si>
   <si>
     <t>29,03%</t>
   </si>
   <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
   </si>
   <si>
     <t>Ni mucho ni poco</t>
@@ -137,28 +137,28 @@
     <t>16,75%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
   </si>
   <si>
     <t>18,54%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
   </si>
   <si>
     <t>17,75%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
   </si>
   <si>
     <t>Menos de lo que deseo</t>
@@ -167,1789 +167,1774 @@
     <t>5,62%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2012 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
   </si>
   <si>
     <t>57,2%</t>
   </si>
   <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2023 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
   </si>
   <si>
     <t>0,94%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2012 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2023 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
   </si>
 </sst>
 </file>
@@ -2361,7 +2346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3482C51B-185A-422C-B5D9-157B050EFF2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676D65E8-1BA9-49FD-AB24-E2BFD7A9FCB4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2725,7 +2710,7 @@
         <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,13 +2725,13 @@
         <v>1031723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2755,13 +2740,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>2329</v>
@@ -2770,18 +2755,18 @@
         <v>2346836</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2793,13 +2778,13 @@
         <v>1011607</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>909</v>
@@ -2808,13 +2793,13 @@
         <v>922603</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>1878</v>
@@ -2823,13 +2808,13 @@
         <v>1934211</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2829,13 @@
         <v>473581</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>445</v>
@@ -2859,13 +2844,13 @@
         <v>449414</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>920</v>
@@ -2874,13 +2859,13 @@
         <v>922995</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2880,13 @@
         <v>164012</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>154</v>
@@ -2910,13 +2895,13 @@
         <v>162936</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>317</v>
@@ -2925,13 +2910,13 @@
         <v>326948</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2931,13 @@
         <v>32766</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -2961,13 +2946,13 @@
         <v>44910</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -2976,13 +2961,13 @@
         <v>77676</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,13 +2982,13 @@
         <v>11446</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -3012,13 +2997,13 @@
         <v>7810</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -3027,13 +3012,13 @@
         <v>19257</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,16 +3030,16 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>1554</v>
@@ -3063,13 +3048,13 @@
         <v>1587673</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>3203</v>
@@ -3078,18 +3063,18 @@
         <v>3281086</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3101,13 +3086,13 @@
         <v>335785</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>276</v>
@@ -3116,13 +3101,13 @@
         <v>289919</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>597</v>
@@ -3131,13 +3116,13 @@
         <v>625705</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,13 +3137,13 @@
         <v>152196</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>124</v>
@@ -3167,13 +3152,13 @@
         <v>130814</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>271</v>
@@ -3182,13 +3167,13 @@
         <v>283010</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3188,13 @@
         <v>47397</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -3218,13 +3203,13 @@
         <v>38430</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>80</v>
@@ -3233,13 +3218,13 @@
         <v>85826</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3239,13 @@
         <v>13506</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -3269,10 +3254,10 @@
         <v>16303</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>138</v>
@@ -3311,7 +3296,7 @@
         <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3320,13 +3305,13 @@
         <v>947</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3335,13 +3320,13 @@
         <v>3471</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3341,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3371,13 +3356,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -3386,13 +3371,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,16 +3391,16 @@
         <v>1787</v>
       </c>
       <c r="D22" s="7">
-        <v>1837072</v>
+        <v>1837071</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>1773</v>
@@ -3424,13 +3409,13 @@
         <v>1804818</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>3560</v>
@@ -3439,13 +3424,13 @@
         <v>3641889</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3445,13 @@
         <v>925608</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>944</v>
@@ -3475,13 +3460,13 @@
         <v>961955</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>1866</v>
@@ -3490,13 +3475,13 @@
         <v>1887562</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3496,13 @@
         <v>384211</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>425</v>
@@ -3526,13 +3511,13 @@
         <v>445166</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>806</v>
@@ -3541,13 +3526,13 @@
         <v>829377</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3547,13 @@
         <v>104250</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>125</v>
@@ -3577,13 +3562,13 @@
         <v>134938</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M25" s="7">
         <v>226</v>
@@ -3592,13 +3577,13 @@
         <v>239188</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,10 +3598,10 @@
         <v>25404</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>185</v>
@@ -3646,10 +3631,10 @@
         <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,16 +3646,16 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>3297</v>
@@ -3679,13 +3664,13 @@
         <v>3379198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>6511</v>
@@ -3694,18 +3679,18 @@
         <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3724,7 +3709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA345C55-27A2-4D04-9C41-4BB2F851C324}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2B0AB2-FDB4-451C-BD96-FB654E9FE6F7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3741,7 +3726,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3848,13 +3833,13 @@
         <v>524350</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>631</v>
@@ -3863,13 +3848,13 @@
         <v>676336</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>1123</v>
@@ -3878,13 +3863,13 @@
         <v>1200686</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,13 +3884,13 @@
         <v>280625</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H5" s="7">
         <v>415</v>
@@ -3914,13 +3899,13 @@
         <v>445164</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>672</v>
@@ -3929,13 +3914,13 @@
         <v>725789</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,13 +3935,13 @@
         <v>130326</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>150</v>
@@ -3965,13 +3950,13 @@
         <v>160488</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M6" s="7">
         <v>272</v>
@@ -3980,13 +3965,13 @@
         <v>290814</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,13 +3986,13 @@
         <v>24992</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -4016,13 +4001,13 @@
         <v>38919</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>59</v>
@@ -4058,7 +4043,7 @@
         <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -4070,10 +4055,10 @@
         <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -4082,13 +4067,13 @@
         <v>25092</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4088,13 @@
         <v>970615</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>1245</v>
@@ -4118,13 +4103,13 @@
         <v>1335677</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>2149</v>
@@ -4133,18 +4118,18 @@
         <v>2306292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4156,13 +4141,13 @@
         <v>1206443</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>957</v>
@@ -4171,13 +4156,13 @@
         <v>1025015</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>107</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>2098</v>
@@ -4186,13 +4171,13 @@
         <v>2231458</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4192,13 @@
         <v>548782</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H11" s="7">
         <v>491</v>
@@ -4222,13 +4207,13 @@
         <v>524713</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M11" s="7">
         <v>1004</v>
@@ -4237,13 +4222,13 @@
         <v>1073495</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4243,13 @@
         <v>165611</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H12" s="7">
         <v>143</v>
@@ -4273,13 +4258,13 @@
         <v>153885</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="M12" s="7">
         <v>306</v>
@@ -4288,13 +4273,13 @@
         <v>319496</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,7 +4294,7 @@
         <v>30707</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>261</v>
@@ -4324,13 +4309,13 @@
         <v>36498</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -4339,13 +4324,13 @@
         <v>67204</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4345,13 @@
         <v>10159</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -4375,13 +4360,13 @@
         <v>14862</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -4390,13 +4375,13 @@
         <v>25021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,16 +4393,16 @@
         <v>1854</v>
       </c>
       <c r="D15" s="7">
-        <v>1961701</v>
+        <v>1961702</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>1633</v>
@@ -4426,13 +4411,13 @@
         <v>1754972</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>3487</v>
@@ -4441,18 +4426,18 @@
         <v>3716674</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4464,13 +4449,13 @@
         <v>325946</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H16" s="7">
         <v>277</v>
@@ -4479,10 +4464,10 @@
         <v>308668</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>280</v>
@@ -4587,7 +4572,7 @@
         <v>297</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -4596,13 +4581,13 @@
         <v>71283</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4602,13 @@
         <v>11577</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4632,13 +4617,13 @@
         <v>7825</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>187</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -4647,10 +4632,10 @@
         <v>19402</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>307</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>308</v>
@@ -4719,13 +4704,13 @@
         <v>479085</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>412</v>
@@ -4734,13 +4719,13 @@
         <v>458631</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>848</v>
@@ -4749,13 +4734,13 @@
         <v>937716</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4808,13 @@
         <v>933291</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H23" s="7">
         <v>1001</v>
@@ -4838,13 +4823,13 @@
         <v>1076223</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M23" s="7">
         <v>1868</v>
@@ -4853,13 +4838,13 @@
         <v>2009514</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4859,13 @@
         <v>331428</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>332</v>
+        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>325</v>
@@ -4889,13 +4874,13 @@
         <v>350165</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M24" s="7">
         <v>640</v>
@@ -4904,13 +4889,13 @@
         <v>681593</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4910,13 @@
         <v>67275</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>340</v>
+        <v>272</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -4940,13 +4925,13 @@
         <v>83241</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M25" s="7">
         <v>135</v>
@@ -4955,13 +4940,13 @@
         <v>150517</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>227</v>
+        <v>342</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>345</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,10 +4964,10 @@
         <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>271</v>
+        <v>344</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -4991,13 +4976,13 @@
         <v>29632</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -5006,13 +4991,13 @@
         <v>52300</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5012,13 @@
         <v>3411401</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>3290</v>
@@ -5042,13 +5027,13 @@
         <v>3549280</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>6484</v>
@@ -5057,18 +5042,18 @@
         <v>6960682</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5087,7 +5072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2CEBFC-78B7-4FC5-84C1-BF228E039685}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B565721A-2F1B-44B3-A5DE-E8933C8F1B62}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5367,10 +5352,10 @@
         <v>378</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>55</v>
+        <v>379</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>379</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -5397,10 +5382,10 @@
         <v>383</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>384</v>
+        <v>306</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>385</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,13 +5400,13 @@
         <v>3976</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>386</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -5430,13 +5415,13 @@
         <v>11324</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>227</v>
+        <v>386</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -5445,13 +5430,13 @@
         <v>15300</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>391</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5451,13 @@
         <v>754347</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>891</v>
@@ -5481,13 +5466,13 @@
         <v>993389</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>1653</v>
@@ -5496,18 +5481,18 @@
         <v>1747736</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5519,13 +5504,13 @@
         <v>1015817</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H10" s="7">
         <v>934</v>
@@ -5534,13 +5519,13 @@
         <v>965657</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M10" s="7">
         <v>1894</v>
@@ -5549,13 +5534,13 @@
         <v>1981474</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5555,13 @@
         <v>736695</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H11" s="7">
         <v>674</v>
@@ -5585,13 +5570,13 @@
         <v>703712</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M11" s="7">
         <v>1367</v>
@@ -5600,13 +5585,13 @@
         <v>1440407</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,13 +5606,13 @@
         <v>265747</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>411</v>
+        <v>126</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H12" s="7">
         <v>256</v>
@@ -5636,13 +5621,13 @@
         <v>272164</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M12" s="7">
         <v>503</v>
@@ -5651,13 +5636,13 @@
         <v>537911</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,13 +5657,13 @@
         <v>41291</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>419</v>
+        <v>140</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -5687,13 +5672,13 @@
         <v>35929</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -5702,13 +5687,13 @@
         <v>77219</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>418</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>424</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5708,13 @@
         <v>12195</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>425</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -5738,13 +5723,13 @@
         <v>7320</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -5753,13 +5738,13 @@
         <v>19515</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,13 +5759,13 @@
         <v>2071745</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>1905</v>
@@ -5789,13 +5774,13 @@
         <v>1984781</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>3853</v>
@@ -5804,18 +5789,18 @@
         <v>4056526</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5827,13 +5812,13 @@
         <v>316008</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="H16" s="7">
         <v>328</v>
@@ -5842,13 +5827,13 @@
         <v>342973</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="M16" s="7">
         <v>619</v>
@@ -5857,13 +5842,13 @@
         <v>658980</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,13 +5863,13 @@
         <v>172479</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>440</v>
+        <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="H17" s="7">
         <v>148</v>
@@ -5893,13 +5878,13 @@
         <v>154884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -5908,13 +5893,13 @@
         <v>327363</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,13 +5914,13 @@
         <v>54427</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -5944,13 +5929,13 @@
         <v>41497</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>379</v>
+        <v>444</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="M18" s="7">
         <v>88</v>
@@ -5959,13 +5944,13 @@
         <v>95923</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,13 +5965,13 @@
         <v>1055</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>143</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>448</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -5995,13 +5980,13 @@
         <v>8853</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>456</v>
+        <v>224</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -6010,13 +5995,13 @@
         <v>9908</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>273</v>
+        <v>451</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,13 +6016,13 @@
         <v>2052</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6052,7 +6037,7 @@
         <v>310</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6061,13 +6046,13 @@
         <v>2052</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,13 +6067,13 @@
         <v>546021</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>525</v>
@@ -6097,13 +6082,13 @@
         <v>548206</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>1025</v>
@@ -6112,13 +6097,13 @@
         <v>1094227</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,13 +6120,13 @@
         <v>1656872</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H22" s="7">
         <v>1624</v>
@@ -6150,13 +6135,13 @@
         <v>1710445</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M22" s="7">
         <v>3203</v>
@@ -6165,13 +6150,13 @@
         <v>3367317</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6186,13 +6171,13 @@
         <v>1157894</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H23" s="7">
         <v>1132</v>
@@ -6201,13 +6186,13 @@
         <v>1202379</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M23" s="7">
         <v>2232</v>
@@ -6216,13 +6201,13 @@
         <v>2360273</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,13 +6222,13 @@
         <v>466792</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H24" s="7">
         <v>468</v>
@@ -6252,13 +6237,13 @@
         <v>505461</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>216</v>
+        <v>475</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="M24" s="7">
         <v>914</v>
@@ -6267,13 +6252,13 @@
         <v>972253</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>484</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,13 +6273,13 @@
         <v>72332</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>486</v>
+        <v>227</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>235</v>
+        <v>480</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="H25" s="7">
         <v>81</v>
@@ -6303,13 +6288,13 @@
         <v>89448</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>263</v>
+        <v>483</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="M25" s="7">
         <v>148</v>
@@ -6318,13 +6303,13 @@
         <v>161779</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>419</v>
+        <v>231</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>90</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,13 +6324,13 @@
         <v>18223</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>230</v>
+        <v>486</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>98</v>
+        <v>487</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>304</v>
+        <v>488</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -6354,13 +6339,13 @@
         <v>18644</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>386</v>
+        <v>230</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>346</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -6369,13 +6354,13 @@
         <v>36867</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>386</v>
+        <v>230</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>491</v>
+        <v>419</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>349</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6375,13 @@
         <v>3372113</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>3321</v>
@@ -6405,13 +6390,13 @@
         <v>3526376</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>6531</v>
@@ -6420,18 +6405,18 @@
         <v>6898489</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -6450,7 +6435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216AA731-9230-4B08-A4D2-2AD6657EBDCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A8833C-9289-4BA6-AB85-B0827A277574}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6467,7 +6452,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6574,13 +6559,13 @@
         <v>262950</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="H4" s="7">
         <v>613</v>
@@ -6589,13 +6574,13 @@
         <v>364965</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="M4" s="7">
         <v>941</v>
@@ -6604,13 +6589,13 @@
         <v>627915</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6610,13 @@
         <v>142157</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="H5" s="7">
         <v>443</v>
@@ -6640,13 +6625,13 @@
         <v>257216</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="M5" s="7">
         <v>628</v>
@@ -6655,13 +6640,13 @@
         <v>399373</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6661,13 @@
         <v>81971</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="H6" s="7">
         <v>225</v>
@@ -6691,13 +6676,13 @@
         <v>125043</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M6" s="7">
         <v>332</v>
@@ -6706,13 +6691,13 @@
         <v>207013</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6712,13 @@
         <v>35077</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H7" s="7">
         <v>108</v>
@@ -6742,13 +6727,13 @@
         <v>65969</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M7" s="7">
         <v>153</v>
@@ -6757,13 +6742,13 @@
         <v>101047</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>526</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6763,13 @@
         <v>15039</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -6793,13 +6778,13 @@
         <v>16095</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>140</v>
+        <v>528</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>529</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>487</v>
+        <v>379</v>
       </c>
       <c r="M8" s="7">
         <v>48</v>
@@ -6808,13 +6793,13 @@
         <v>31134</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,13 +6814,13 @@
         <v>537194</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>1417</v>
@@ -6844,13 +6829,13 @@
         <v>829288</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>2102</v>
@@ -6859,18 +6844,18 @@
         <v>1366482</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6882,13 +6867,13 @@
         <v>1250011</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="H10" s="7">
         <v>1563</v>
@@ -6897,13 +6882,13 @@
         <v>1203121</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>540</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>2612</v>
@@ -6912,13 +6897,13 @@
         <v>2453133</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,13 +6918,13 @@
         <v>670174</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>542</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H11" s="7">
         <v>993</v>
@@ -6948,13 +6933,13 @@
         <v>796091</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="M11" s="7">
         <v>1684</v>
@@ -6963,13 +6948,13 @@
         <v>1466265</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,13 +6969,13 @@
         <v>154885</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>553</v>
       </c>
       <c r="H12" s="7">
         <v>224</v>
@@ -6999,13 +6984,13 @@
         <v>151061</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="M12" s="7">
         <v>381</v>
@@ -7014,13 +6999,13 @@
         <v>305946</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,13 +7020,13 @@
         <v>61254</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="H13" s="7">
         <v>103</v>
@@ -7050,13 +7035,13 @@
         <v>76978</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -7065,13 +7050,13 @@
         <v>138232</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,13 +7071,13 @@
         <v>23328</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>261</v>
+        <v>344</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>235</v>
+        <v>567</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -7101,13 +7086,13 @@
         <v>19085</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>486</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>54</v>
@@ -7119,10 +7104,10 @@
         <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>569</v>
+        <v>421</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,13 +7122,13 @@
         <v>2159653</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>2915</v>
@@ -7152,13 +7137,13 @@
         <v>2246337</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>4904</v>
@@ -7167,18 +7152,18 @@
         <v>4405990</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7190,13 +7175,13 @@
         <v>424488</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="H16" s="7">
         <v>688</v>
@@ -7205,13 +7190,13 @@
         <v>500857</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="M16" s="7">
         <v>1099</v>
@@ -7220,13 +7205,13 @@
         <v>925345</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,13 +7226,13 @@
         <v>196401</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>581</v>
       </c>
       <c r="H17" s="7">
         <v>251</v>
@@ -7256,13 +7241,13 @@
         <v>168246</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>584</v>
       </c>
       <c r="M17" s="7">
         <v>465</v>
@@ -7271,13 +7256,13 @@
         <v>364647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>586</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,13 +7277,13 @@
         <v>35462</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -7307,13 +7292,13 @@
         <v>31455</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="M18" s="7">
         <v>79</v>
@@ -7322,13 +7307,13 @@
         <v>66916</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>594</v>
+        <v>223</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,13 +7328,13 @@
         <v>10644</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>596</v>
+        <v>452</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -7358,13 +7343,13 @@
         <v>5559</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -7373,10 +7358,10 @@
         <v>16203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>53</v>
@@ -7394,13 +7379,13 @@
         <v>4168</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>235</v>
+        <v>567</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7412,10 +7397,10 @@
         <v>189</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>601</v>
+        <v>451</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -7424,13 +7409,13 @@
         <v>10338</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>391</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7445,13 +7430,13 @@
         <v>671162</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>1002</v>
@@ -7460,13 +7445,13 @@
         <v>712286</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>1681</v>
@@ -7475,13 +7460,13 @@
         <v>1383449</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7498,13 +7483,13 @@
         <v>1937449</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H22" s="7">
         <v>2864</v>
@@ -7513,13 +7498,13 @@
         <v>2068943</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>607</v>
+        <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="M22" s="7">
         <v>4652</v>
@@ -7528,13 +7513,13 @@
         <v>4006393</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7549,13 +7534,13 @@
         <v>1008733</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>606</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="H23" s="7">
         <v>1687</v>
@@ -7564,13 +7549,13 @@
         <v>1221554</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="M23" s="7">
         <v>2777</v>
@@ -7579,13 +7564,13 @@
         <v>2230286</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7600,13 +7585,13 @@
         <v>272317</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="H24" s="7">
         <v>492</v>
@@ -7615,13 +7600,13 @@
         <v>307558</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>86</v>
+        <v>620</v>
       </c>
       <c r="M24" s="7">
         <v>792</v>
@@ -7630,13 +7615,13 @@
         <v>579876</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7651,13 +7636,13 @@
         <v>106975</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="H25" s="7">
         <v>222</v>
@@ -7666,13 +7651,13 @@
         <v>148506</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="M25" s="7">
         <v>351</v>
@@ -7681,13 +7666,13 @@
         <v>255482</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7702,13 +7687,13 @@
         <v>42535</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>235</v>
+        <v>567</v>
       </c>
       <c r="H26" s="7">
         <v>69</v>
@@ -7717,13 +7702,13 @@
         <v>41350</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>636</v>
+        <v>415</v>
       </c>
       <c r="M26" s="7">
         <v>115</v>
@@ -7732,13 +7717,13 @@
         <v>83886</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>148</v>
+        <v>631</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>636</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7753,13 +7738,13 @@
         <v>3368010</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>5334</v>
@@ -7768,13 +7753,13 @@
         <v>3787912</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>8687</v>
@@ -7783,18 +7768,18 @@
         <v>7155922</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5706-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5706-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ABE1246-ABDA-4F8D-AF6E-F6F8BFFA6D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E54E8ADE-C267-47FE-B46D-9DB05126EEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{759B92E0-A90F-4609-A2C5-A410DA1508DF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BD5C2CC-8F5E-4002-BBF7-37166E960ADB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="647">
   <si>
     <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>47,46%</t>
   </si>
   <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
   </si>
   <si>
     <t>45,04%</t>
   </si>
   <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
   </si>
   <si>
     <t>46,1%</t>
   </si>
   <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,1834 +107,1879 @@
     <t>29,06%</t>
   </si>
   <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
   </si>
   <si>
     <t>29,03%</t>
   </si>
   <si>
-    <t>26,63%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>Ni mucho ni poco</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2012 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
   </si>
   <si>
     <t>31,59%</t>
   </si>
   <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>Ni mucho ni poco</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2023 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
   </si>
   <si>
     <t>24,04%</t>
   </si>
   <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2012 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2016 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2023 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
     <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
 </sst>
 </file>
@@ -2346,7 +2391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676D65E8-1BA9-49FD-AB24-E2BFD7A9FCB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36066937-E1BC-4528-8805-8CE76FE7AA24}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2710,7 +2755,7 @@
         <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,13 +2770,13 @@
         <v>1031723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2740,13 +2785,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2329</v>
@@ -2755,18 +2800,18 @@
         <v>2346836</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2778,13 +2823,13 @@
         <v>1011607</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>909</v>
@@ -2793,13 +2838,13 @@
         <v>922603</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>1878</v>
@@ -2808,13 +2853,13 @@
         <v>1934211</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,13 +2874,13 @@
         <v>473581</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>445</v>
@@ -2844,13 +2889,13 @@
         <v>449414</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>920</v>
@@ -2859,13 +2904,13 @@
         <v>922995</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,13 +2925,13 @@
         <v>164012</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>154</v>
@@ -2895,13 +2940,13 @@
         <v>162936</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>317</v>
@@ -2910,13 +2955,13 @@
         <v>326948</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +2976,13 @@
         <v>32766</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -2946,13 +2991,13 @@
         <v>44910</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -2961,13 +3006,13 @@
         <v>77676</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +3027,13 @@
         <v>11446</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2997,13 +3042,13 @@
         <v>7810</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -3012,13 +3057,13 @@
         <v>19257</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,16 +3075,16 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1554</v>
@@ -3048,13 +3093,13 @@
         <v>1587673</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3203</v>
@@ -3063,18 +3108,18 @@
         <v>3281086</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3086,13 +3131,13 @@
         <v>335785</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>276</v>
@@ -3101,13 +3146,13 @@
         <v>289919</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>597</v>
@@ -3116,13 +3161,13 @@
         <v>625705</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3182,13 @@
         <v>152196</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>124</v>
@@ -3152,13 +3197,13 @@
         <v>130814</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>271</v>
@@ -3167,13 +3212,13 @@
         <v>283010</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3233,13 @@
         <v>47397</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -3203,13 +3248,13 @@
         <v>38430</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>80</v>
@@ -3218,13 +3263,13 @@
         <v>85826</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3284,13 @@
         <v>13506</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -3254,13 +3299,13 @@
         <v>16303</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -3269,13 +3314,13 @@
         <v>29809</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3335,13 @@
         <v>2524</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3305,13 +3350,13 @@
         <v>947</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3320,13 +3365,13 @@
         <v>3471</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3386,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3356,13 +3401,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -3371,13 +3416,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,16 +3436,16 @@
         <v>1787</v>
       </c>
       <c r="D22" s="7">
-        <v>1837071</v>
+        <v>1837072</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>1773</v>
@@ -3409,13 +3454,13 @@
         <v>1804818</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>3560</v>
@@ -3424,13 +3469,13 @@
         <v>3641889</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3490,13 @@
         <v>925608</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>944</v>
@@ -3460,13 +3505,13 @@
         <v>961955</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>1866</v>
@@ -3475,13 +3520,13 @@
         <v>1887562</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3541,13 @@
         <v>384211</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>425</v>
@@ -3511,13 +3556,13 @@
         <v>445166</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>806</v>
@@ -3526,13 +3571,13 @@
         <v>829377</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3592,13 @@
         <v>104250</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>125</v>
@@ -3562,13 +3607,13 @@
         <v>134938</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>226</v>
@@ -3577,13 +3622,13 @@
         <v>239188</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3643,13 @@
         <v>25404</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>30</v>
@@ -3613,13 +3658,13 @@
         <v>32321</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>53</v>
@@ -3628,13 +3673,13 @@
         <v>57725</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,16 +3691,16 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3297</v>
@@ -3664,33 +3709,33 @@
         <v>3379198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3709,7 +3754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2B0AB2-FDB4-451C-BD96-FB654E9FE6F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C160AB7-545D-4F5C-BEB9-672867B1E583}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3726,7 +3771,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3833,13 +3878,13 @@
         <v>524350</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>631</v>
@@ -3848,13 +3893,13 @@
         <v>676336</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>1123</v>
@@ -3863,13 +3908,13 @@
         <v>1200686</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,13 +3929,13 @@
         <v>280625</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>415</v>
@@ -3899,13 +3944,13 @@
         <v>445164</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>672</v>
@@ -3914,13 +3959,13 @@
         <v>725789</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3980,13 @@
         <v>130326</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>150</v>
@@ -3950,13 +3995,13 @@
         <v>160488</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>272</v>
@@ -3965,13 +4010,13 @@
         <v>290814</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +4031,13 @@
         <v>24992</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -4001,13 +4046,13 @@
         <v>38919</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>59</v>
@@ -4016,13 +4061,13 @@
         <v>63911</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,7 +4082,7 @@
         <v>10322</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>57</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>230</v>
@@ -4088,13 +4133,13 @@
         <v>970615</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1245</v>
@@ -4103,13 +4148,13 @@
         <v>1335677</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2149</v>
@@ -4118,18 +4163,18 @@
         <v>2306292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4192,7 +4237,7 @@
         <v>548782</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>246</v>
@@ -4264,7 +4309,7 @@
         <v>258</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="M12" s="7">
         <v>306</v>
@@ -4273,13 +4318,13 @@
         <v>319496</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4339,13 @@
         <v>30707</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -4309,13 +4354,13 @@
         <v>36498</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -4324,13 +4369,13 @@
         <v>67204</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4390,13 @@
         <v>10159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>101</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -4360,10 +4405,10 @@
         <v>14862</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>143</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>272</v>
@@ -4381,7 +4426,7 @@
         <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,16 +4438,16 @@
         <v>1854</v>
       </c>
       <c r="D15" s="7">
-        <v>1961702</v>
+        <v>1961701</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1633</v>
@@ -4411,13 +4456,13 @@
         <v>1754972</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3487</v>
@@ -4426,18 +4471,18 @@
         <v>3716674</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4506,7 +4551,7 @@
         <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
         <v>95</v>
@@ -4515,13 +4560,13 @@
         <v>106346</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>192</v>
@@ -4530,13 +4575,13 @@
         <v>210230</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4596,13 @@
         <v>35492</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -4566,13 +4611,13 @@
         <v>35792</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -4581,13 +4626,13 @@
         <v>71283</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,13 +4647,13 @@
         <v>11577</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4617,13 +4662,13 @@
         <v>7825</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -4632,13 +4677,13 @@
         <v>19402</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>305</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +4698,13 @@
         <v>2186</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4668,13 +4713,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4683,13 +4728,13 @@
         <v>2186</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4749,13 @@
         <v>479085</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>412</v>
@@ -4719,13 +4764,13 @@
         <v>458631</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>848</v>
@@ -4734,13 +4779,13 @@
         <v>937716</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4802,13 @@
         <v>2056739</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H22" s="7">
         <v>1865</v>
@@ -4772,13 +4817,13 @@
         <v>2010019</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M22" s="7">
         <v>3797</v>
@@ -4787,13 +4832,13 @@
         <v>4066759</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4853,13 @@
         <v>933291</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>252</v>
+        <v>320</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H23" s="7">
         <v>1001</v>
@@ -4823,13 +4868,13 @@
         <v>1076223</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M23" s="7">
         <v>1868</v>
@@ -4838,13 +4883,13 @@
         <v>2009514</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4904,13 @@
         <v>331428</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>325</v>
@@ -4889,13 +4934,13 @@
         <v>681593</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4955,13 @@
         <v>67275</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>272</v>
+        <v>339</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -4925,13 +4970,13 @@
         <v>83241</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>340</v>
+        <v>95</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>341</v>
+        <v>96</v>
       </c>
       <c r="M25" s="7">
         <v>135</v>
@@ -4943,10 +4988,10 @@
         <v>342</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +5006,13 @@
         <v>22668</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>344</v>
+        <v>57</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -4979,10 +5024,10 @@
         <v>345</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -4991,10 +5036,10 @@
         <v>52300</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>349</v>
@@ -5012,13 +5057,13 @@
         <v>3411401</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3290</v>
@@ -5027,13 +5072,13 @@
         <v>3549280</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6484</v>
@@ -5042,18 +5087,18 @@
         <v>6960682</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -5072,7 +5117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B565721A-2F1B-44B3-A5DE-E8933C8F1B62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA4ADDB-706B-4EF7-9AC1-DA26E4DA740F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5253,7 +5298,7 @@
         <v>361</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>362</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
         <v>310</v>
@@ -5262,13 +5307,13 @@
         <v>343783</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M5" s="7">
         <v>559</v>
@@ -5277,13 +5322,13 @@
         <v>592503</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5343,13 @@
         <v>146618</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H6" s="7">
         <v>172</v>
@@ -5313,13 +5358,13 @@
         <v>191800</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M6" s="7">
         <v>323</v>
@@ -5328,13 +5373,13 @@
         <v>338418</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5394,13 @@
         <v>29986</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -5364,13 +5409,13 @@
         <v>44666</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M7" s="7">
         <v>68</v>
@@ -5379,13 +5424,13 @@
         <v>74652</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>294</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5445,13 @@
         <v>3976</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>385</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -5415,13 +5460,13 @@
         <v>11324</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>388</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>389</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>386</v>
+        <v>226</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -5430,13 +5475,13 @@
         <v>15300</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5496,13 @@
         <v>754347</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>891</v>
@@ -5466,13 +5511,13 @@
         <v>993389</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>1653</v>
@@ -5481,18 +5526,18 @@
         <v>1747736</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5504,13 +5549,13 @@
         <v>1015817</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H10" s="7">
         <v>934</v>
@@ -5519,13 +5564,13 @@
         <v>965657</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M10" s="7">
         <v>1894</v>
@@ -5534,13 +5579,13 @@
         <v>1981474</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5600,13 @@
         <v>736695</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H11" s="7">
         <v>674</v>
@@ -5570,13 +5615,13 @@
         <v>703712</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M11" s="7">
         <v>1367</v>
@@ -5585,13 +5630,13 @@
         <v>1440407</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5651,13 @@
         <v>265747</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>126</v>
+        <v>411</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H12" s="7">
         <v>256</v>
@@ -5621,13 +5666,13 @@
         <v>272164</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M12" s="7">
         <v>503</v>
@@ -5636,13 +5681,13 @@
         <v>537911</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,13 +5702,13 @@
         <v>41291</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>140</v>
+        <v>419</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>415</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -5672,13 +5717,13 @@
         <v>35929</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -5687,13 +5732,13 @@
         <v>77219</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>424</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5753,13 @@
         <v>12195</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>426</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>261</v>
+        <v>427</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -5723,13 +5768,13 @@
         <v>7320</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -5738,13 +5783,13 @@
         <v>19515</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5804,13 @@
         <v>2071745</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1905</v>
@@ -5774,13 +5819,13 @@
         <v>1984781</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3853</v>
@@ -5789,18 +5834,18 @@
         <v>4056526</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5812,13 +5857,13 @@
         <v>316008</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="H16" s="7">
         <v>328</v>
@@ -5827,13 +5872,13 @@
         <v>342973</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="M16" s="7">
         <v>619</v>
@@ -5842,13 +5887,13 @@
         <v>658980</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,13 +5908,13 @@
         <v>172479</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>26</v>
+        <v>443</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H17" s="7">
         <v>148</v>
@@ -5878,13 +5923,13 @@
         <v>154884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -5893,13 +5938,13 @@
         <v>327363</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5959,13 @@
         <v>54427</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -5929,13 +5974,13 @@
         <v>41497</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="M18" s="7">
         <v>88</v>
@@ -5947,10 +5992,10 @@
         <v>257</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>447</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,13 +6010,13 @@
         <v>1055</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>458</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -5980,13 +6025,13 @@
         <v>8853</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>235</v>
+        <v>347</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>224</v>
+        <v>461</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -5995,13 +6040,13 @@
         <v>9908</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>452</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,13 +6061,13 @@
         <v>2052</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>465</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6031,13 +6076,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6046,13 +6091,13 @@
         <v>2052</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>458</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,13 +6112,13 @@
         <v>546021</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>525</v>
@@ -6082,13 +6127,13 @@
         <v>548206</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1025</v>
@@ -6097,13 +6142,13 @@
         <v>1094227</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6165,13 @@
         <v>1656872</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>456</v>
+        <v>397</v>
       </c>
       <c r="H22" s="7">
         <v>1624</v>
@@ -6135,13 +6180,13 @@
         <v>1710445</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="M22" s="7">
         <v>3203</v>
@@ -6150,13 +6195,13 @@
         <v>3367317</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6216,13 @@
         <v>1157894</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="H23" s="7">
         <v>1132</v>
@@ -6186,13 +6231,13 @@
         <v>1202379</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="M23" s="7">
         <v>2232</v>
@@ -6201,13 +6246,13 @@
         <v>2360273</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6267,13 @@
         <v>466792</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="H24" s="7">
         <v>468</v>
@@ -6237,13 +6282,13 @@
         <v>505461</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="M24" s="7">
         <v>914</v>
@@ -6252,13 +6297,13 @@
         <v>972253</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6318,13 @@
         <v>72332</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>227</v>
+        <v>491</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>481</v>
+        <v>420</v>
       </c>
       <c r="H25" s="7">
         <v>81</v>
@@ -6288,13 +6333,13 @@
         <v>89448</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>483</v>
+        <v>231</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>484</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>148</v>
@@ -6303,13 +6348,13 @@
         <v>161779</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>231</v>
+        <v>494</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6369,13 @@
         <v>18223</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>486</v>
+        <v>389</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>488</v>
+        <v>345</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -6339,13 +6384,13 @@
         <v>18644</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>230</v>
+        <v>385</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>271</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -6354,13 +6399,13 @@
         <v>36867</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>230</v>
+        <v>385</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6420,13 @@
         <v>3372113</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3321</v>
@@ -6390,13 +6435,13 @@
         <v>3526376</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6531</v>
@@ -6405,18 +6450,18 @@
         <v>6898489</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -6435,7 +6480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A8833C-9289-4BA6-AB85-B0827A277574}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E2E64A-D74C-452B-AA21-2047324E31A1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6452,7 +6497,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6559,13 +6604,13 @@
         <v>262950</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="H4" s="7">
         <v>613</v>
@@ -6574,13 +6619,13 @@
         <v>364965</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="M4" s="7">
         <v>941</v>
@@ -6589,13 +6634,13 @@
         <v>627915</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,13 +6655,13 @@
         <v>142157</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="H5" s="7">
         <v>443</v>
@@ -6625,13 +6670,13 @@
         <v>257216</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="M5" s="7">
         <v>628</v>
@@ -6640,13 +6685,13 @@
         <v>399373</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6706,13 @@
         <v>81971</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>510</v>
+        <v>219</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="H6" s="7">
         <v>225</v>
@@ -6676,13 +6721,13 @@
         <v>125043</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="M6" s="7">
         <v>332</v>
@@ -6691,13 +6736,13 @@
         <v>207013</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6757,13 @@
         <v>35077</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="H7" s="7">
         <v>108</v>
@@ -6727,13 +6772,13 @@
         <v>65969</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="M7" s="7">
         <v>153</v>
@@ -6742,13 +6787,13 @@
         <v>101047</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>531</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>524</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6808,13 @@
         <v>15039</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -6778,13 +6823,13 @@
         <v>16095</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>529</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>379</v>
+        <v>537</v>
       </c>
       <c r="M8" s="7">
         <v>48</v>
@@ -6793,13 +6838,13 @@
         <v>31134</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6814,13 +6859,13 @@
         <v>537194</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1417</v>
@@ -6829,13 +6874,13 @@
         <v>829288</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2102</v>
@@ -6844,18 +6889,18 @@
         <v>1366482</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6867,13 +6912,13 @@
         <v>1250011</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="H10" s="7">
         <v>1563</v>
@@ -6882,13 +6927,13 @@
         <v>1203121</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>546</v>
       </c>
       <c r="M10" s="7">
         <v>2612</v>
@@ -6897,13 +6942,13 @@
         <v>2453133</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,13 +6963,13 @@
         <v>670174</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="H11" s="7">
         <v>993</v>
@@ -6933,13 +6978,13 @@
         <v>796091</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="M11" s="7">
         <v>1684</v>
@@ -6948,13 +6993,13 @@
         <v>1466265</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,13 +7014,13 @@
         <v>154885</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="H12" s="7">
         <v>224</v>
@@ -6984,13 +7029,13 @@
         <v>151061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="M12" s="7">
         <v>381</v>
@@ -6999,13 +7044,13 @@
         <v>305946</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,13 +7065,13 @@
         <v>61254</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>560</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>103</v>
@@ -7035,13 +7080,13 @@
         <v>76978</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>570</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -7050,13 +7095,13 @@
         <v>138232</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,13 +7116,13 @@
         <v>23328</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>344</v>
+        <v>575</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>566</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>567</v>
+        <v>534</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -7086,13 +7131,13 @@
         <v>19085</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>486</v>
+        <v>576</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>54</v>
@@ -7101,13 +7146,13 @@
         <v>42414</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>421</v>
+        <v>577</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7167,13 @@
         <v>2159653</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>2915</v>
@@ -7137,13 +7182,13 @@
         <v>2246337</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>4904</v>
@@ -7152,18 +7197,18 @@
         <v>4405990</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7172,16 +7217,16 @@
         <v>411</v>
       </c>
       <c r="D16" s="7">
-        <v>424488</v>
+        <v>424489</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="H16" s="7">
         <v>688</v>
@@ -7190,13 +7235,13 @@
         <v>500857</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="M16" s="7">
         <v>1099</v>
@@ -7205,13 +7250,13 @@
         <v>925345</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7226,13 +7271,13 @@
         <v>196401</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="H17" s="7">
         <v>251</v>
@@ -7241,13 +7286,13 @@
         <v>168246</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="M17" s="7">
         <v>465</v>
@@ -7256,13 +7301,13 @@
         <v>364647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>116</v>
+        <v>595</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,13 +7322,13 @@
         <v>35462</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>587</v>
+        <v>528</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -7292,13 +7337,13 @@
         <v>31455</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>181</v>
+        <v>600</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="M18" s="7">
         <v>79</v>
@@ -7307,13 +7352,13 @@
         <v>66916</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>223</v>
+        <v>603</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7373,13 @@
         <v>10644</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>452</v>
+        <v>605</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>533</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -7343,13 +7388,13 @@
         <v>5559</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>343</v>
+        <v>428</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -7358,13 +7403,13 @@
         <v>16203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>593</v>
+        <v>54</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>53</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7424,13 @@
         <v>4168</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>567</v>
+        <v>610</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7394,13 +7439,13 @@
         <v>6170</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>451</v>
+        <v>274</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -7409,13 +7454,13 @@
         <v>10338</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>274</v>
+        <v>612</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,16 +7472,16 @@
         <v>679</v>
       </c>
       <c r="D21" s="7">
-        <v>671162</v>
+        <v>671163</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>1002</v>
@@ -7445,13 +7490,13 @@
         <v>712286</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1681</v>
@@ -7460,13 +7505,13 @@
         <v>1383449</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,13 +7528,13 @@
         <v>1937449</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="H22" s="7">
         <v>2864</v>
@@ -7498,13 +7543,13 @@
         <v>2068943</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>19</v>
+        <v>499</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="M22" s="7">
         <v>4652</v>
@@ -7513,13 +7558,13 @@
         <v>4006393</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,13 +7579,13 @@
         <v>1008733</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="H23" s="7">
         <v>1687</v>
@@ -7549,13 +7594,13 @@
         <v>1221554</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="M23" s="7">
         <v>2777</v>
@@ -7564,13 +7609,13 @@
         <v>2230286</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>613</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,13 +7630,13 @@
         <v>272317</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="H24" s="7">
         <v>492</v>
@@ -7600,13 +7645,13 @@
         <v>307558</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>620</v>
+        <v>86</v>
       </c>
       <c r="M24" s="7">
         <v>792</v>
@@ -7615,13 +7660,13 @@
         <v>579876</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>257</v>
+        <v>637</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,13 +7681,13 @@
         <v>106975</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>221</v>
+        <v>638</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>639</v>
       </c>
       <c r="H25" s="7">
         <v>222</v>
@@ -7651,13 +7696,13 @@
         <v>148506</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>624</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="M25" s="7">
         <v>351</v>
@@ -7666,13 +7711,13 @@
         <v>255482</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>626</v>
+        <v>229</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>642</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>627</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7732,13 @@
         <v>42535</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>628</v>
+        <v>346</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>629</v>
+        <v>459</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>567</v>
+        <v>643</v>
       </c>
       <c r="H26" s="7">
         <v>69</v>
@@ -7705,10 +7750,10 @@
         <v>234</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>415</v>
+        <v>56</v>
       </c>
       <c r="M26" s="7">
         <v>115</v>
@@ -7717,13 +7762,13 @@
         <v>83886</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>593</v>
+        <v>54</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>415</v>
+        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7783,13 @@
         <v>3368010</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>5334</v>
@@ -7753,13 +7798,13 @@
         <v>3787912</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>8687</v>
@@ -7768,18 +7813,18 @@
         <v>7155922</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5706-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5706-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E54E8ADE-C267-47FE-B46D-9DB05126EEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6011CF9-7278-47AD-B90C-AD4F06139114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BD5C2CC-8F5E-4002-BBF7-37166E960ADB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0EC02C0B-9FC4-4FA6-AECD-5BEB36DAA915}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="642">
   <si>
     <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -1538,448 +1538,433 @@
     <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2023 (Tasa respuesta: 99,6%)</t>
   </si>
   <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>1,07%</t>
   </si>
 </sst>
 </file>
@@ -2391,7 +2376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36066937-E1BC-4528-8805-8CE76FE7AA24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB2BCE4-D35E-4932-BAD6-7A81ED802847}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2797,7 +2782,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>59</v>
@@ -3075,7 +3060,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -3436,7 +3421,7 @@
         <v>1787</v>
       </c>
       <c r="D22" s="7">
-        <v>1837072</v>
+        <v>1837071</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>150</v>
@@ -3502,7 +3487,7 @@
         <v>944</v>
       </c>
       <c r="I23" s="7">
-        <v>961955</v>
+        <v>961954</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>162</v>
@@ -3691,7 +3676,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -3706,7 +3691,7 @@
         <v>3297</v>
       </c>
       <c r="I27" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -3721,7 +3706,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -3754,7 +3739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C160AB7-545D-4F5C-BEB9-672867B1E583}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3DB782-AF12-4D0F-B4EA-8DC148DB086E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5117,7 +5102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA4ADDB-706B-4EF7-9AC1-DA26E4DA740F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68140872-C510-477C-9EAA-25BC069F0A7D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6480,7 +6465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E2E64A-D74C-452B-AA21-2047324E31A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8076721-8E2B-4F2F-9004-6EC6195AF7CA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6601,46 +6586,46 @@
         <v>328</v>
       </c>
       <c r="D4" s="7">
-        <v>262950</v>
+        <v>255513</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="H4" s="7">
         <v>613</v>
       </c>
       <c r="I4" s="7">
-        <v>364965</v>
+        <v>336756</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="M4" s="7">
         <v>941</v>
       </c>
       <c r="N4" s="7">
-        <v>627915</v>
+        <v>592269</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,46 +6637,46 @@
         <v>185</v>
       </c>
       <c r="D5" s="7">
-        <v>142157</v>
+        <v>133548</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="H5" s="7">
         <v>443</v>
       </c>
       <c r="I5" s="7">
-        <v>257216</v>
+        <v>228941</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="M5" s="7">
         <v>628</v>
       </c>
       <c r="N5" s="7">
-        <v>399373</v>
+        <v>362490</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,46 +6688,46 @@
         <v>107</v>
       </c>
       <c r="D6" s="7">
-        <v>81971</v>
+        <v>76728</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="H6" s="7">
         <v>225</v>
       </c>
       <c r="I6" s="7">
-        <v>125043</v>
+        <v>111783</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="M6" s="7">
         <v>332</v>
       </c>
       <c r="N6" s="7">
-        <v>207013</v>
+        <v>188511</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,46 +6739,46 @@
         <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>35077</v>
+        <v>31378</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="H7" s="7">
         <v>108</v>
       </c>
       <c r="I7" s="7">
-        <v>65969</v>
+        <v>57859</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="M7" s="7">
         <v>153</v>
       </c>
       <c r="N7" s="7">
-        <v>101047</v>
+        <v>89237</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,7 +6790,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="7">
-        <v>15039</v>
+        <v>13469</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>533</v>
@@ -6814,19 +6799,19 @@
         <v>534</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>535</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>16095</v>
+        <v>14182</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>537</v>
@@ -6835,16 +6820,16 @@
         <v>48</v>
       </c>
       <c r="N8" s="7">
-        <v>31134</v>
+        <v>27651</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>538</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,7 +6841,7 @@
         <v>685</v>
       </c>
       <c r="D9" s="7">
-        <v>537194</v>
+        <v>510636</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>59</v>
@@ -6871,7 +6856,7 @@
         <v>1417</v>
       </c>
       <c r="I9" s="7">
-        <v>829288</v>
+        <v>749522</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -6886,7 +6871,7 @@
         <v>2102</v>
       </c>
       <c r="N9" s="7">
-        <v>1366482</v>
+        <v>1260158</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>59</v>
@@ -6909,46 +6894,46 @@
         <v>1049</v>
       </c>
       <c r="D10" s="7">
-        <v>1250011</v>
+        <v>1444513</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="H10" s="7">
         <v>1563</v>
       </c>
       <c r="I10" s="7">
-        <v>1203121</v>
+        <v>1194020</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>544</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>545</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M10" s="7">
         <v>2612</v>
       </c>
       <c r="N10" s="7">
-        <v>2453133</v>
+        <v>2638533</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6960,46 +6945,46 @@
         <v>691</v>
       </c>
       <c r="D11" s="7">
-        <v>670174</v>
+        <v>621450</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H11" s="7">
         <v>993</v>
       </c>
       <c r="I11" s="7">
-        <v>796091</v>
+        <v>820087</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="M11" s="7">
         <v>1684</v>
       </c>
       <c r="N11" s="7">
-        <v>1466265</v>
+        <v>1441537</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>556</v>
+        <v>121</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7011,46 +6996,46 @@
         <v>157</v>
       </c>
       <c r="D12" s="7">
-        <v>154885</v>
+        <v>145710</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H12" s="7">
         <v>224</v>
       </c>
       <c r="I12" s="7">
-        <v>151061</v>
+        <v>134967</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="M12" s="7">
         <v>381</v>
       </c>
       <c r="N12" s="7">
-        <v>305946</v>
+        <v>280677</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,46 +7047,46 @@
         <v>70</v>
       </c>
       <c r="D13" s="7">
-        <v>61254</v>
+        <v>55201</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>537</v>
+        <v>425</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>568</v>
+        <v>262</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>564</v>
       </c>
       <c r="H13" s="7">
         <v>103</v>
       </c>
       <c r="I13" s="7">
-        <v>76978</v>
+        <v>67801</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>570</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
       </c>
       <c r="N13" s="7">
-        <v>138232</v>
+        <v>123003</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,46 +7098,46 @@
         <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>23328</v>
+        <v>21188</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>534</v>
+        <v>145</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
       </c>
       <c r="I14" s="7">
-        <v>19085</v>
+        <v>17931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>571</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>576</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>572</v>
       </c>
       <c r="M14" s="7">
         <v>54</v>
       </c>
       <c r="N14" s="7">
-        <v>42414</v>
+        <v>39119</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>105</v>
+        <v>573</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>577</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>578</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,7 +7149,7 @@
         <v>1989</v>
       </c>
       <c r="D15" s="7">
-        <v>2159653</v>
+        <v>2288062</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -7179,7 +7164,7 @@
         <v>2915</v>
       </c>
       <c r="I15" s="7">
-        <v>2246337</v>
+        <v>2234806</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -7194,7 +7179,7 @@
         <v>4904</v>
       </c>
       <c r="N15" s="7">
-        <v>4405990</v>
+        <v>4522869</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -7217,46 +7202,46 @@
         <v>411</v>
       </c>
       <c r="D16" s="7">
-        <v>424489</v>
+        <v>413924</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H16" s="7">
         <v>688</v>
       </c>
       <c r="I16" s="7">
-        <v>500857</v>
+        <v>467332</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="M16" s="7">
         <v>1099</v>
       </c>
       <c r="N16" s="7">
-        <v>925345</v>
+        <v>881256</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,46 +7253,46 @@
         <v>214</v>
       </c>
       <c r="D17" s="7">
-        <v>196401</v>
+        <v>183032</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H17" s="7">
         <v>251</v>
       </c>
       <c r="I17" s="7">
-        <v>168246</v>
+        <v>152504</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M17" s="7">
         <v>465</v>
       </c>
       <c r="N17" s="7">
-        <v>364647</v>
+        <v>335535</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>596</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,46 +7304,46 @@
         <v>36</v>
       </c>
       <c r="D18" s="7">
-        <v>35462</v>
+        <v>34169</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>598</v>
+        <v>183</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
       </c>
       <c r="I18" s="7">
-        <v>31455</v>
+        <v>28491</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="M18" s="7">
         <v>79</v>
       </c>
       <c r="N18" s="7">
-        <v>66916</v>
+        <v>62659</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,46 +7355,46 @@
         <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>10644</v>
+        <v>9998</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>271</v>
+        <v>600</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>533</v>
+        <v>377</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>5559</v>
+        <v>5081</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>186</v>
+        <v>430</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>428</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
       </c>
       <c r="N19" s="7">
-        <v>16203</v>
+        <v>15079</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>54</v>
+        <v>310</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>347</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,46 +7406,46 @@
         <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>4168</v>
+        <v>3719</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>608</v>
+        <v>232</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
       </c>
       <c r="I20" s="7">
-        <v>6170</v>
+        <v>5646</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>191</v>
+        <v>573</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>274</v>
+        <v>605</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
       </c>
       <c r="N20" s="7">
-        <v>10338</v>
+        <v>9366</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>347</v>
+        <v>607</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>612</v>
+        <v>464</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>613</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7472,7 +7457,7 @@
         <v>679</v>
       </c>
       <c r="D21" s="7">
-        <v>671163</v>
+        <v>644842</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -7487,7 +7472,7 @@
         <v>1002</v>
       </c>
       <c r="I21" s="7">
-        <v>712286</v>
+        <v>659054</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -7502,7 +7487,7 @@
         <v>1681</v>
       </c>
       <c r="N21" s="7">
-        <v>1383449</v>
+        <v>1303896</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -7525,46 +7510,46 @@
         <v>1788</v>
       </c>
       <c r="D22" s="7">
-        <v>1937449</v>
+        <v>2113950</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="H22" s="7">
         <v>2864</v>
       </c>
       <c r="I22" s="7">
-        <v>2068943</v>
+        <v>1998108</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>499</v>
+        <v>612</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="M22" s="7">
         <v>4652</v>
       </c>
       <c r="N22" s="7">
-        <v>4006393</v>
+        <v>4112059</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,46 +7561,46 @@
         <v>1090</v>
       </c>
       <c r="D23" s="7">
-        <v>1008733</v>
+        <v>938030</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="H23" s="7">
         <v>1687</v>
       </c>
       <c r="I23" s="7">
-        <v>1221554</v>
+        <v>1201532</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="M23" s="7">
         <v>2777</v>
       </c>
       <c r="N23" s="7">
-        <v>2230286</v>
+        <v>2139562</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>78</v>
+        <v>624</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,46 +7612,46 @@
         <v>300</v>
       </c>
       <c r="D24" s="7">
-        <v>272317</v>
+        <v>256606</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>630</v>
+        <v>258</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H24" s="7">
         <v>492</v>
       </c>
       <c r="I24" s="7">
-        <v>307558</v>
+        <v>275241</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>86</v>
+        <v>630</v>
       </c>
       <c r="M24" s="7">
         <v>792</v>
       </c>
       <c r="N24" s="7">
-        <v>579876</v>
+        <v>531848</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,46 +7663,46 @@
         <v>129</v>
       </c>
       <c r="D25" s="7">
-        <v>106975</v>
+        <v>96578</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>634</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>638</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="H25" s="7">
         <v>222</v>
       </c>
       <c r="I25" s="7">
-        <v>148506</v>
+        <v>130741</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>640</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="M25" s="7">
         <v>351</v>
       </c>
       <c r="N25" s="7">
-        <v>255482</v>
+        <v>227319</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>229</v>
+        <v>637</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>642</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7729,46 +7714,46 @@
         <v>46</v>
       </c>
       <c r="D26" s="7">
-        <v>42535</v>
+        <v>38376</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>346</v>
+        <v>50</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="H26" s="7">
         <v>69</v>
       </c>
       <c r="I26" s="7">
-        <v>41350</v>
+        <v>37759</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>234</v>
+        <v>639</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>644</v>
+        <v>347</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>56</v>
+        <v>640</v>
       </c>
       <c r="M26" s="7">
         <v>115</v>
       </c>
       <c r="N26" s="7">
-        <v>83886</v>
+        <v>76135</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>54</v>
+        <v>641</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>645</v>
+        <v>271</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>646</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7780,7 +7765,7 @@
         <v>3353</v>
       </c>
       <c r="D27" s="7">
-        <v>3368010</v>
+        <v>3443540</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -7795,7 +7780,7 @@
         <v>5334</v>
       </c>
       <c r="I27" s="7">
-        <v>3787912</v>
+        <v>3643382</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -7810,7 +7795,7 @@
         <v>8687</v>
       </c>
       <c r="N27" s="7">
-        <v>7155922</v>
+        <v>7086922</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
